--- a/emails.xlsx
+++ b/emails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/304_CNY_email/emailer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{24083CB0-C4F2-4ECB-A9DF-ACE6510B26A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8CED305-F2E3-4FC6-896A-8ADF4734440B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{24083CB0-C4F2-4ECB-A9DF-ACE6510B26A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{543FEBE2-77A4-4DE4-BC1F-F952E4B24DB8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{879A4089-8CDF-47C5-94DB-3A6F54C33A15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{879A4089-8CDF-47C5-94DB-3A6F54C33A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="194">
   <si>
     <t xml:space="preserve">Company </t>
   </si>
@@ -64,6 +64,564 @@
   </si>
   <si>
     <t>yj@sunnymetal.com</t>
+  </si>
+  <si>
+    <t>jiehhuey@masstron.com</t>
+  </si>
+  <si>
+    <t>kexin@intermech.com.sg</t>
+  </si>
+  <si>
+    <t>jason.lan@chroma.com.tw</t>
+  </si>
+  <si>
+    <t>kelvin@micrographicsdata.com</t>
+  </si>
+  <si>
+    <t>yoongyann@mohsim.com</t>
+  </si>
+  <si>
+    <t>engseng.lim@sembmarine.com</t>
+  </si>
+  <si>
+    <t>seanchee@masstron.com</t>
+  </si>
+  <si>
+    <t>alan.chan@synersys.com.sg</t>
+  </si>
+  <si>
+    <t>chinpeng@greenphyto.com</t>
+  </si>
+  <si>
+    <t>chunming.lee@phoenixcontact.com.sg</t>
+  </si>
+  <si>
+    <t>lenghuat@rfnetech.com</t>
+  </si>
+  <si>
+    <t>malfian@rfnetech.com</t>
+  </si>
+  <si>
+    <t>tsawhooi@rfnetech.com</t>
+  </si>
+  <si>
+    <t>max@gncpiping.com</t>
+  </si>
+  <si>
+    <t>woonsehwei@gmail.com</t>
+  </si>
+  <si>
+    <t>moses.yap@cmr-group.com</t>
+  </si>
+  <si>
+    <t>Jing.Wang@rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>ervin@abtech.com.sg</t>
+  </si>
+  <si>
+    <t>dericklau@primustech.com.sg</t>
+  </si>
+  <si>
+    <t>kunlong@nicad.com.sg</t>
+  </si>
+  <si>
+    <t>Rengie.Ng@crs.com.au</t>
+  </si>
+  <si>
+    <t>michelle.lai@ait.sg</t>
+  </si>
+  <si>
+    <t>sales@ait.sg</t>
+  </si>
+  <si>
+    <t>ong.teck.beng@hostechsg.com</t>
+  </si>
+  <si>
+    <t>howardchueng@magnumsin.com</t>
+  </si>
+  <si>
+    <t>goodtechziyan@gmail.com</t>
+  </si>
+  <si>
+    <t>shuhwan@masstron.com</t>
+  </si>
+  <si>
+    <t>hoeann1@gmail.com</t>
+  </si>
+  <si>
+    <t>narayanan@frenckengroup.com</t>
+  </si>
+  <si>
+    <t>bpyj@yahoo.com</t>
+  </si>
+  <si>
+    <t>ernest.khoo@shimadzu.com.sg</t>
+  </si>
+  <si>
+    <t>weihao.loh@excelmarco.com</t>
+  </si>
+  <si>
+    <t>yeekin.chiew@trd.sg</t>
+  </si>
+  <si>
+    <t>dovanyeo@charslton.com</t>
+  </si>
+  <si>
+    <t>kangyeo@phoenixcontact.com.sg</t>
+  </si>
+  <si>
+    <t>zihui.lim@prysmiangroup.com</t>
+  </si>
+  <si>
+    <t>desmondtay@ttit.com.sg</t>
+  </si>
+  <si>
+    <t>Karmun.Cheong@excelmarco.com</t>
+  </si>
+  <si>
+    <t>Nicole.Yee@rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>Marcus.Tan@rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>mahalingam@primustech.com.sg</t>
+  </si>
+  <si>
+    <t>Mohammad.Fazare@excelmarco.com</t>
+  </si>
+  <si>
+    <t>yeo.sharon@obo.sg</t>
+  </si>
+  <si>
+    <t>win.kyaw@excelmarco.com</t>
+  </si>
+  <si>
+    <t>oliver.lim@tcpgrp.com</t>
+  </si>
+  <si>
+    <t>myotun.ye@excelmarco.com</t>
+  </si>
+  <si>
+    <t>lowkkc@quasi-s.com.sg</t>
+  </si>
+  <si>
+    <t>technicalservice@quasi-s.com.sg</t>
+  </si>
+  <si>
+    <t>rajkumar@primustech.com.sg</t>
+  </si>
+  <si>
+    <t>jerry@skywavesolutions.com.sg</t>
+  </si>
+  <si>
+    <t>cheryl.tan@legrand.com</t>
+  </si>
+  <si>
+    <t>engtat.ong@sg.quantel-global.com</t>
+  </si>
+  <si>
+    <t>sharon.leong@metroparking.com.sg</t>
+  </si>
+  <si>
+    <t>erikotan@primustech.com.sg</t>
+  </si>
+  <si>
+    <t>alain.ng@masstron.com</t>
+  </si>
+  <si>
+    <t>willy.low@bartecasia.com</t>
+  </si>
+  <si>
+    <t>williams.lim@obo.sg</t>
+  </si>
+  <si>
+    <t>margaretng@masstron.com</t>
+  </si>
+  <si>
+    <t>psng@forbes-asia.com.sg</t>
+  </si>
+  <si>
+    <t>Gan.James@obo.sg</t>
+  </si>
+  <si>
+    <t>joyce.eng@bartecasia.com</t>
+  </si>
+  <si>
+    <t>jonathan.tan@prysmiangroup.com</t>
+  </si>
+  <si>
+    <t>koycham.lee@prysmiangroup.com</t>
+  </si>
+  <si>
+    <t>nyatfu.law@sembmarine.com</t>
+  </si>
+  <si>
+    <t>andy.ng@starmedia.bz</t>
+  </si>
+  <si>
+    <t>anthonyyong@primustech.com.sg</t>
+  </si>
+  <si>
+    <t>steven.tan@munhean.com.sg</t>
+  </si>
+  <si>
+    <t>cstan@kns.com</t>
+  </si>
+  <si>
+    <t>Michelle.Lee@rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>Paxton.Tan@rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>tina@wholesome.sg</t>
+  </si>
+  <si>
+    <t>tanym@genplus.sg</t>
+  </si>
+  <si>
+    <t>baoguang@masstron.com</t>
+  </si>
+  <si>
+    <t>joachim@themossiah.sg</t>
+  </si>
+  <si>
+    <t>eman.tosiman@thredio.com</t>
+  </si>
+  <si>
+    <t>paranthaman.kalechelvam@kwe.com</t>
+  </si>
+  <si>
+    <t>maran.p@martec-engrg.com</t>
+  </si>
+  <si>
+    <t>janice.tan@mind-technology.com</t>
+  </si>
+  <si>
+    <t>khsim@hostechsg.com</t>
+  </si>
+  <si>
+    <t>leeyeong.ku@rfnetech.com</t>
+  </si>
+  <si>
+    <t>gohyh@primustech.com.sg</t>
+  </si>
+  <si>
+    <t>Mui.Ling.Goh@BEUMER.com</t>
+  </si>
+  <si>
+    <t>John.Lim@crs.com.au</t>
+  </si>
+  <si>
+    <t>LIEW_Yuen_Hua@hdb.gov.sg</t>
+  </si>
+  <si>
+    <t>ththam@masstron.com</t>
+  </si>
+  <si>
+    <t>shannalee@khianheng.com.sg</t>
+  </si>
+  <si>
+    <t>shuixien.wong@gmail.com</t>
+  </si>
+  <si>
+    <t>liyanyan.lyy88@gmail.com</t>
+  </si>
+  <si>
+    <t>resty@kindly.com.sg</t>
+  </si>
+  <si>
+    <t>chanchan@chianteck.com</t>
+  </si>
+  <si>
+    <t>qinyi.pay@legrand.com</t>
+  </si>
+  <si>
+    <t>ljinting@rfnetech.com</t>
+  </si>
+  <si>
+    <t>sp@phoenixcontact.com.sg</t>
+  </si>
+  <si>
+    <t>carson.lim@adlinktech.com</t>
+  </si>
+  <si>
+    <t>ntongsiong@rfnetech.com</t>
+  </si>
+  <si>
+    <t>christopher.poh@ib.com.sg</t>
+  </si>
+  <si>
+    <t>admin@hi-tek.eom.sg</t>
+  </si>
+  <si>
+    <t>evon.loo@soilbuild.com</t>
+  </si>
+  <si>
+    <t>jayabalan.chinasamy@stengg.com</t>
+  </si>
+  <si>
+    <t>heewah.lam@sg.quantel-global.com</t>
+  </si>
+  <si>
+    <t>hardi@ait.sg</t>
+  </si>
+  <si>
+    <t>don@servcommintl.com</t>
+  </si>
+  <si>
+    <t>june.jamri@benthic.com</t>
+  </si>
+  <si>
+    <t>jiasian@frenckengroup.com</t>
+  </si>
+  <si>
+    <t>clarkekibbparungao@apmasia.com.sg</t>
+  </si>
+  <si>
+    <t>yenshing.tan@rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>boyet@servcommintl.com</t>
+  </si>
+  <si>
+    <t>guanleong.lim@rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>korzhenhao@primustech.com.sg</t>
+  </si>
+  <si>
+    <t>yikyan.khor@ait.sg</t>
+  </si>
+  <si>
+    <t>zyanghao.koh@rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>chrissy.liqf@stengg.com</t>
+  </si>
+  <si>
+    <t>EngNgee.Gan@rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>chris.s@forbes-asia.com.sg</t>
+  </si>
+  <si>
+    <t>sheryl.ng@umweepl.com.sg</t>
+  </si>
+  <si>
+    <t>janice.soh@cbsea.com.sg</t>
+  </si>
+  <si>
+    <t>ruhi.kokate@ademcosecurity.com</t>
+  </si>
+  <si>
+    <t>bingkun.peh@ademcosecurity.com</t>
+  </si>
+  <si>
+    <t>wksd@bleusea.com</t>
+  </si>
+  <si>
+    <t>KimSeng.Chua@rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>esther.goh@rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>abtech.com.sg</t>
+  </si>
+  <si>
+    <t>ademcosecurity.com</t>
+  </si>
+  <si>
+    <t>adlinktech.com</t>
+  </si>
+  <si>
+    <t>ait.sg</t>
+  </si>
+  <si>
+    <t>apmasia.com.sg</t>
+  </si>
+  <si>
+    <t>bartecasia.com</t>
+  </si>
+  <si>
+    <t>benthic.com</t>
+  </si>
+  <si>
+    <t>BEUMER.com</t>
+  </si>
+  <si>
+    <t>bleusea.com</t>
+  </si>
+  <si>
+    <t>cbsea.com.sg</t>
+  </si>
+  <si>
+    <t>charslton.com</t>
+  </si>
+  <si>
+    <t>chianteck.com</t>
+  </si>
+  <si>
+    <t>chroma.com.tw</t>
+  </si>
+  <si>
+    <t>cmr-group.com</t>
+  </si>
+  <si>
+    <t>crs.com.au</t>
+  </si>
+  <si>
+    <t>excelmarco.com</t>
+  </si>
+  <si>
+    <t>forbes-asia.com.sg</t>
+  </si>
+  <si>
+    <t>frenckengroup.com</t>
+  </si>
+  <si>
+    <t>genplus.sg</t>
+  </si>
+  <si>
+    <t>gmail.com</t>
+  </si>
+  <si>
+    <t>gncpiping.com</t>
+  </si>
+  <si>
+    <t>greenphyto.com</t>
+  </si>
+  <si>
+    <t>hdb.gov.sg</t>
+  </si>
+  <si>
+    <t>hi-tek.eom.sg</t>
+  </si>
+  <si>
+    <t>hostechsg.com</t>
+  </si>
+  <si>
+    <t>ib.com.sg</t>
+  </si>
+  <si>
+    <t>intermech.com.sg</t>
+  </si>
+  <si>
+    <t>khianheng.com.sg</t>
+  </si>
+  <si>
+    <t>kindly.com.sg</t>
+  </si>
+  <si>
+    <t>kns.com</t>
+  </si>
+  <si>
+    <t>kwe.com</t>
+  </si>
+  <si>
+    <t>legrand.com</t>
+  </si>
+  <si>
+    <t>magnumsin.com</t>
+  </si>
+  <si>
+    <t>martec-engrg.com</t>
+  </si>
+  <si>
+    <t>masstron.com</t>
+  </si>
+  <si>
+    <t>metroparking.com.sg</t>
+  </si>
+  <si>
+    <t>micrographicsdata.com</t>
+  </si>
+  <si>
+    <t>mind-technology.com</t>
+  </si>
+  <si>
+    <t>mohsim.com</t>
+  </si>
+  <si>
+    <t>munhean.com.sg</t>
+  </si>
+  <si>
+    <t>nicad.com.sg</t>
+  </si>
+  <si>
+    <t>obo.sg</t>
+  </si>
+  <si>
+    <t>phoenixcontact.com.sg</t>
+  </si>
+  <si>
+    <t>primustech.com.sg</t>
+  </si>
+  <si>
+    <t>prysmiangroup.com</t>
+  </si>
+  <si>
+    <t>quasi-s.com.sg</t>
+  </si>
+  <si>
+    <t>rfnetech.com</t>
+  </si>
+  <si>
+    <t>rohde-schwarz.com</t>
+  </si>
+  <si>
+    <t>sembmarine.com</t>
+  </si>
+  <si>
+    <t>servcommintl.com</t>
+  </si>
+  <si>
+    <t>sg.quantel-global.com</t>
+  </si>
+  <si>
+    <t>shimadzu.com.sg</t>
+  </si>
+  <si>
+    <t>skywavesolutions.com.sg</t>
+  </si>
+  <si>
+    <t>soilbuild.com</t>
+  </si>
+  <si>
+    <t>starmedia.bz</t>
+  </si>
+  <si>
+    <t>stengg.com</t>
+  </si>
+  <si>
+    <t>synersys.com.sg</t>
+  </si>
+  <si>
+    <t>tcpgrp.com</t>
+  </si>
+  <si>
+    <t>themossiah.sg</t>
+  </si>
+  <si>
+    <t>thredio.com</t>
+  </si>
+  <si>
+    <t>trd.sg</t>
+  </si>
+  <si>
+    <t>ttit.com.sg</t>
+  </si>
+  <si>
+    <t>umweepl.com.sg</t>
+  </si>
+  <si>
+    <t>wholesome.sg</t>
+  </si>
+  <si>
+    <t>yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -117,7 +675,38 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -128,6 +717,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,25 +1040,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D18F3F-3A1E-41C1-ADB9-FF0DB1A5BF6D}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A3" sqref="A3:A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +1078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -494,6 +1087,974 @@
       </c>
       <c r="F2" s="1">
         <v>45616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>177</v>
+      </c>
+      <c r="C104" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>187</v>
+      </c>
+      <c r="C117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>190</v>
+      </c>
+      <c r="C120" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>191</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>193</v>
+      </c>
+      <c r="C123" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/304_CNY_email/emailer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{24083CB0-C4F2-4ECB-A9DF-ACE6510B26A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C89168CD-D3E8-421E-B7EC-9F7D6DEBD6B0}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{24083CB0-C4F2-4ECB-A9DF-ACE6510B26A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311E6AA4-1A60-41EA-A945-4A742AA14F6E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{879A4089-8CDF-47C5-94DB-3A6F54C33A15}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Company </t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>bpyj@yahoo.com</t>
+  </si>
+  <si>
+    <t>ben</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,10 +497,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -505,14 +508,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{63D18F3F-3A1E-41C1-ADB9-FF0DB1A5BF6D}"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{753B7FF6-4553-4358-AE19-A4E3B929C2D8}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{DE62908A-1418-4C9D-AC02-6F3C2DC84588}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{DE7B7911-F442-4808-A5D3-848553F4DAA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
